--- a/biology/Botanique/Emmenopterys_henryi/Emmenopterys_henryi.xlsx
+++ b/biology/Botanique/Emmenopterys_henryi/Emmenopterys_henryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmenopterys henryi est un arbre à feuilles caduques appartenant à la famille des Rubiaceae originaire du sud de la Chine, où il est une espèce protégée.
 L'épithète spécifique est dédiée à Augustine Henry, médecin irlandais qui découvrit de nombreuses plantes en Chine avant de les ramener en Occident.[réf. souhaitée]
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmenopterys henryi est originaire des forêts tempérées des montagnes du sud de la Chine, où il pousse entre 400 à 1 600 m d'altitude principalement. 
-C'est l'une des nombreuses espèces reliques aujourd'hui restreintes à l'Asie, notamment dans les montagnes du sud de la Chine, qui sont représentatives de genres botaniques autrefois présents dans les forêts d'une grande partie de l'Holarctique durant l'ère Tertiaire, dont l'Amérique du Nord et l'Europe[2].
+C'est l'une des nombreuses espèces reliques aujourd'hui restreintes à l'Asie, notamment dans les montagnes du sud de la Chine, qui sont représentatives de genres botaniques autrefois présents dans les forêts d'une grande partie de l'Holarctique durant l'ère Tertiaire, dont l'Amérique du Nord et l'Europe.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa région d'origine, Emmenopterys henryi peut atteindre 45 m de hauteur et vivre plus de 1000 ans.[réf. nécessaire]
 Son écorce exfoliée est grise puis devient rugueuse et sillonnée.
@@ -579,11 +595,13 @@
           <t>Floraison rare</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre fleurit de façon très aléatoire. La première floraison d’un spécimen d’Emmenopterys henryi en Europe date de 1971 à l'arboretum de la Villa Taranto sur le lac Majeur[3],[4],[5].
-En Belgique, un spécimen est présent à l’arboretum de Kalmthout (floraisons en 1987, 2006 et 2009)[6].
-En France, un spécimen d’Emmenopterys henryi a fleuri en 2012 à Saint-Romain-en-Gal dans le département du Rhône[7], au jardin botanique de Strasbourg et à deux reprises au parc Victor Thuillat de Limoges (Haute-Vienne) en 2012[8] et 2018[9].  Un spécimen au jardin de Kerdalo fleuri en 2008[10]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre fleurit de façon très aléatoire. La première floraison d’un spécimen d’Emmenopterys henryi en Europe date de 1971 à l'arboretum de la Villa Taranto sur le lac Majeur.
+En Belgique, un spécimen est présent à l’arboretum de Kalmthout (floraisons en 1987, 2006 et 2009).
+En France, un spécimen d’Emmenopterys henryi a fleuri en 2012 à Saint-Romain-en-Gal dans le département du Rhône, au jardin botanique de Strasbourg et à deux reprises au parc Victor Thuillat de Limoges (Haute-Vienne) en 2012 et 2018.  Un spécimen au jardin de Kerdalo fleuri en 2008. 
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Usage ornemental</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a très peu de ces arbres hors d'Asie du Sud-Est. La première introduction en Europe date de 1907 en Angleterre[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a très peu de ces arbres hors d'Asie du Sud-Est. La première introduction en Europe date de 1907 en Angleterre,.
 </t>
         </is>
       </c>
